--- a/output/ocr_result.xlsx
+++ b/output/ocr_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sss</t>
         </is>
       </c>
     </row>
@@ -464,6 +469,11 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>RPAD000123060044</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RFP中</t>
         </is>
       </c>
     </row>

--- a/output/ocr_result.xlsx
+++ b/output/ocr_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>field_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>code</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sss</t>
         </is>
       </c>
     </row>
@@ -461,19 +466,20 @@
           <t>PAD_丛代凤_21364.jpg</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>丛代凤</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>JUN.15TH,2023</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>RPAD000123060044</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>RFP中</t>
         </is>
       </c>
     </row>
